--- a/dataanalysis/data/predictions/1200/08191135_1137.xlsx
+++ b/dataanalysis/data/predictions/1200/08191135_1137.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="231">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-19</t>
   </si>
   <si>
@@ -704,12 +707,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1067,13 +1064,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH133"/>
+  <dimension ref="A1:AI133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,19 +1173,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>19.78</v>
@@ -1206,7 +1206,7 @@
         <v>149082.21</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1247,8 +1247,23 @@
       <c r="W2">
         <v>-0.71</v>
       </c>
+      <c r="X2">
+        <v>-2.19</v>
+      </c>
+      <c r="Y2">
+        <v>11.6</v>
+      </c>
+      <c r="Z2">
+        <v>-3.73</v>
+      </c>
       <c r="AC2" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1256,22 +1271,25 @@
       <c r="AG2">
         <v>-9.301854133605957</v>
       </c>
-      <c r="AH2" t="s">
-        <v>230</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300016</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>7.63</v>
@@ -1289,7 +1307,7 @@
         <v>114107.9</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1330,8 +1348,23 @@
       <c r="W3">
         <v>0.37</v>
       </c>
+      <c r="X3">
+        <v>-8.35</v>
+      </c>
+      <c r="Y3">
+        <v>11.15</v>
+      </c>
+      <c r="Z3">
+        <v>-1.15</v>
+      </c>
       <c r="AC3" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1339,22 +1372,25 @@
       <c r="AG3">
         <v>8.226741790771484</v>
       </c>
-      <c r="AH3" t="s">
-        <v>230</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300033</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-2.15</v>
@@ -1372,7 +1408,7 @@
         <v>567561.47</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1413,8 +1449,23 @@
       <c r="W4">
         <v>-0.51</v>
       </c>
+      <c r="X4">
+        <v>-0.71</v>
+      </c>
+      <c r="Y4">
+        <v>389.88</v>
+      </c>
+      <c r="Z4">
+        <v>-1.6</v>
+      </c>
       <c r="AC4" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1422,22 +1473,25 @@
       <c r="AG4">
         <v>37.81431579589844</v>
       </c>
-      <c r="AH4" t="s">
-        <v>230</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300046</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>3.12</v>
@@ -1455,7 +1509,7 @@
         <v>152751.48</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1496,8 +1550,23 @@
       <c r="W5">
         <v>0.5</v>
       </c>
+      <c r="X5">
+        <v>0.74</v>
+      </c>
+      <c r="Y5">
+        <v>48.45</v>
+      </c>
+      <c r="Z5">
+        <v>0.35</v>
+      </c>
       <c r="AC5" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1505,22 +1574,25 @@
       <c r="AG5">
         <v>9.178638458251953</v>
       </c>
-      <c r="AH5" t="s">
-        <v>230</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300047</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>1.05</v>
@@ -1538,7 +1610,7 @@
         <v>150162.61</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1579,8 +1651,23 @@
       <c r="W6">
         <v>-0.47</v>
       </c>
+      <c r="X6">
+        <v>-0.85</v>
+      </c>
+      <c r="Y6">
+        <v>19.07</v>
+      </c>
+      <c r="Z6">
+        <v>-1.09</v>
+      </c>
       <c r="AC6" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1588,22 +1675,25 @@
       <c r="AG6">
         <v>-6.233358860015869</v>
       </c>
-      <c r="AH6" t="s">
-        <v>230</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300059</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-1.47</v>
@@ -1621,7 +1711,7 @@
         <v>1329230.85</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1662,8 +1752,23 @@
       <c r="W7">
         <v>-0.25</v>
       </c>
+      <c r="X7">
+        <v>0.67</v>
+      </c>
+      <c r="Y7">
+        <v>27.08</v>
+      </c>
+      <c r="Z7">
+        <v>-1.31</v>
+      </c>
       <c r="AC7" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1671,22 +1776,25 @@
       <c r="AG7">
         <v>-16.02771949768066</v>
       </c>
-      <c r="AH7" t="s">
-        <v>230</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300066</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0.98</v>
@@ -1704,7 +1812,7 @@
         <v>63718.49</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1745,8 +1853,23 @@
       <c r="W8">
         <v>-0.32</v>
       </c>
+      <c r="X8">
+        <v>6.21</v>
+      </c>
+      <c r="Y8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>12.15</v>
+      </c>
       <c r="AC8" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1754,22 +1877,25 @@
       <c r="AG8">
         <v>0.180122047662735</v>
       </c>
-      <c r="AH8" t="s">
-        <v>230</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300145</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-3.11</v>
@@ -1787,7 +1913,7 @@
         <v>99963.86</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1828,8 +1954,23 @@
       <c r="W9">
         <v>-0.67</v>
       </c>
+      <c r="X9">
+        <v>-0.19</v>
+      </c>
+      <c r="Y9">
+        <v>5.35</v>
+      </c>
+      <c r="Z9">
+        <v>1.13</v>
+      </c>
       <c r="AC9" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1837,22 +1978,25 @@
       <c r="AG9">
         <v>1.890884757041931</v>
       </c>
-      <c r="AH9" t="s">
-        <v>230</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300158</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>9.43</v>
@@ -1870,7 +2014,7 @@
         <v>144960.86</v>
       </c>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K10">
         <v>20</v>
@@ -1911,8 +2055,23 @@
       <c r="W10">
         <v>1.24</v>
       </c>
+      <c r="X10">
+        <v>-5.61</v>
+      </c>
+      <c r="Y10">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="Z10">
+        <v>-3.09</v>
+      </c>
       <c r="AC10" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1920,22 +2079,25 @@
       <c r="AG10">
         <v>8.355343818664551</v>
       </c>
-      <c r="AH10" t="s">
-        <v>230</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300184</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>2.16</v>
@@ -1953,7 +2115,7 @@
         <v>203747.25</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1994,8 +2156,23 @@
       <c r="W11">
         <v>-0.4</v>
       </c>
+      <c r="X11">
+        <v>1.21</v>
+      </c>
+      <c r="Y11">
+        <v>11.7</v>
+      </c>
+      <c r="Z11">
+        <v>-0.85</v>
+      </c>
       <c r="AC11" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2003,22 +2180,25 @@
       <c r="AG11">
         <v>-2.6240074634552</v>
       </c>
-      <c r="AH11" t="s">
-        <v>230</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300188</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-0.96</v>
@@ -2036,7 +2216,7 @@
         <v>64248.77</v>
       </c>
       <c r="J12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -2077,8 +2257,23 @@
       <c r="W12">
         <v>-0.52</v>
       </c>
+      <c r="X12">
+        <v>-2.21</v>
+      </c>
+      <c r="Y12">
+        <v>18.41</v>
+      </c>
+      <c r="Z12">
+        <v>-1.13</v>
+      </c>
       <c r="AC12" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2086,22 +2281,25 @@
       <c r="AG12">
         <v>7.117653369903564</v>
       </c>
-      <c r="AH12" t="s">
-        <v>230</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300196</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-2.5</v>
@@ -2119,7 +2317,7 @@
         <v>25749.13</v>
       </c>
       <c r="J13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -2160,8 +2358,23 @@
       <c r="W13">
         <v>-0.49</v>
       </c>
+      <c r="X13">
+        <v>-1.62</v>
+      </c>
+      <c r="Y13">
+        <v>16.74</v>
+      </c>
+      <c r="Z13">
+        <v>-0.18</v>
+      </c>
       <c r="AC13" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2169,22 +2382,25 @@
       <c r="AG13">
         <v>37.05018997192383</v>
       </c>
-      <c r="AH13" t="s">
-        <v>230</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300199</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-2.37</v>
@@ -2202,7 +2418,7 @@
         <v>314266.24</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K14">
         <v>16</v>
@@ -2243,8 +2459,23 @@
       <c r="W14">
         <v>-1.57</v>
       </c>
+      <c r="X14">
+        <v>-0.21</v>
+      </c>
+      <c r="Y14">
+        <v>31.19</v>
+      </c>
+      <c r="Z14">
+        <v>6.82</v>
+      </c>
       <c r="AC14" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2252,22 +2483,25 @@
       <c r="AG14">
         <v>3.86462926864624</v>
       </c>
-      <c r="AH14" t="s">
-        <v>230</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300218</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-0.22</v>
@@ -2285,7 +2519,7 @@
         <v>24029.42</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K15">
         <v>8</v>
@@ -2326,8 +2560,23 @@
       <c r="W15">
         <v>-0.76</v>
       </c>
+      <c r="X15">
+        <v>-4.08</v>
+      </c>
+      <c r="Y15">
+        <v>22.66</v>
+      </c>
+      <c r="Z15">
+        <v>0.04</v>
+      </c>
       <c r="AC15" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2335,22 +2584,25 @@
       <c r="AG15">
         <v>27.5168628692627</v>
       </c>
-      <c r="AH15" t="s">
-        <v>230</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300224</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-0.89</v>
@@ -2368,7 +2620,7 @@
         <v>100309.34</v>
       </c>
       <c r="J16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -2409,8 +2661,23 @@
       <c r="W16">
         <v>-0.19</v>
       </c>
+      <c r="X16">
+        <v>-0.54</v>
+      </c>
+      <c r="Y16">
+        <v>19.66</v>
+      </c>
+      <c r="Z16">
+        <v>3.42</v>
+      </c>
       <c r="AC16" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2418,22 +2685,25 @@
       <c r="AG16">
         <v>5.599771499633789</v>
       </c>
-      <c r="AH16" t="s">
-        <v>230</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300252</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>2.05</v>
@@ -2451,7 +2721,7 @@
         <v>115083.69</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2492,8 +2762,23 @@
       <c r="W17">
         <v>-0.71</v>
       </c>
+      <c r="X17">
+        <v>-0.91</v>
+      </c>
+      <c r="Y17">
+        <v>14.5</v>
+      </c>
+      <c r="Z17">
+        <v>0.62</v>
+      </c>
       <c r="AC17" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2501,22 +2786,25 @@
       <c r="AG17">
         <v>5.563318252563477</v>
       </c>
-      <c r="AH17" t="s">
-        <v>230</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300290</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0.64</v>
@@ -2534,7 +2822,7 @@
         <v>75827.72</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2575,8 +2863,23 @@
       <c r="W18">
         <v>-0.12</v>
       </c>
+      <c r="X18">
+        <v>3.03</v>
+      </c>
+      <c r="Y18">
+        <v>23.88</v>
+      </c>
+      <c r="Z18">
+        <v>1.79</v>
+      </c>
       <c r="AC18" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2584,22 +2887,25 @@
       <c r="AG18">
         <v>8.689361572265625</v>
       </c>
-      <c r="AH18" t="s">
-        <v>230</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300291</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.28</v>
@@ -2617,7 +2923,7 @@
         <v>68562.89</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2658,8 +2964,23 @@
       <c r="W19">
         <v>-0.68</v>
       </c>
+      <c r="X19">
+        <v>-2.21</v>
+      </c>
+      <c r="Y19">
+        <v>6.8</v>
+      </c>
+      <c r="Z19">
+        <v>-0.73</v>
+      </c>
       <c r="AC19" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2667,22 +2988,25 @@
       <c r="AG19">
         <v>0.3736392259597778</v>
       </c>
-      <c r="AH19" t="s">
-        <v>230</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300304</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>3.08</v>
@@ -2700,7 +3024,7 @@
         <v>43322.15</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2741,8 +3065,23 @@
       <c r="W20">
         <v>-0.09</v>
       </c>
+      <c r="X20">
+        <v>2.88</v>
+      </c>
+      <c r="Y20">
+        <v>13.65</v>
+      </c>
+      <c r="Z20">
+        <v>4.6</v>
+      </c>
       <c r="AC20" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2750,22 +3089,25 @@
       <c r="AG20">
         <v>16.58682632446289</v>
       </c>
-      <c r="AH20" t="s">
-        <v>230</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300324</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-1.48</v>
@@ -2783,7 +3125,7 @@
         <v>117796.6</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2824,8 +3166,23 @@
       <c r="W21">
         <v>-1.1</v>
       </c>
+      <c r="X21">
+        <v>-1.88</v>
+      </c>
+      <c r="Y21">
+        <v>6.03</v>
+      </c>
+      <c r="Z21">
+        <v>0.5</v>
+      </c>
       <c r="AC21" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2833,22 +3190,25 @@
       <c r="AG21">
         <v>-6.331170558929443</v>
       </c>
-      <c r="AH21" t="s">
-        <v>230</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300368</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0.3</v>
@@ -2866,7 +3226,7 @@
         <v>137858.53</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K22">
         <v>8</v>
@@ -2907,8 +3267,23 @@
       <c r="W22">
         <v>0.17</v>
       </c>
+      <c r="X22">
+        <v>4.3</v>
+      </c>
+      <c r="Y22">
+        <v>17.47</v>
+      </c>
+      <c r="Z22">
+        <v>3.93</v>
+      </c>
       <c r="AC22" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2916,22 +3291,25 @@
       <c r="AG22">
         <v>23.14585494995117</v>
       </c>
-      <c r="AH22" t="s">
-        <v>230</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300378</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.76</v>
@@ -2949,7 +3327,7 @@
         <v>136650.09</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2990,8 +3368,23 @@
       <c r="W23">
         <v>-0.08</v>
       </c>
+      <c r="X23">
+        <v>-4.3</v>
+      </c>
+      <c r="Y23">
+        <v>56.53</v>
+      </c>
+      <c r="Z23">
+        <v>-6.76</v>
+      </c>
       <c r="AC23" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2999,22 +3392,25 @@
       <c r="AG23">
         <v>9.643522262573242</v>
       </c>
-      <c r="AH23" t="s">
-        <v>230</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300395</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-5.17</v>
@@ -3032,7 +3428,7 @@
         <v>197916.65</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -3073,8 +3469,23 @@
       <c r="W24">
         <v>-0.15</v>
       </c>
+      <c r="X24">
+        <v>-1.89</v>
+      </c>
+      <c r="Y24">
+        <v>95.5</v>
+      </c>
+      <c r="Z24">
+        <v>-1.76</v>
+      </c>
       <c r="AC24" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3082,22 +3493,25 @@
       <c r="AG24">
         <v>-4.085229873657227</v>
       </c>
-      <c r="AH24" t="s">
-        <v>230</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300398</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-3.86</v>
@@ -3115,7 +3529,7 @@
         <v>111146.46</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -3156,8 +3570,23 @@
       <c r="W25">
         <v>-1.1</v>
       </c>
+      <c r="X25">
+        <v>1.31</v>
+      </c>
+      <c r="Y25">
+        <v>24.06</v>
+      </c>
+      <c r="Z25">
+        <v>0.54</v>
+      </c>
       <c r="AC25" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3165,22 +3594,25 @@
       <c r="AG25">
         <v>2.375091552734375</v>
       </c>
-      <c r="AH25" t="s">
-        <v>230</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300400</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1.59</v>
@@ -3198,7 +3630,7 @@
         <v>67438.53999999999</v>
       </c>
       <c r="J26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K26">
         <v>7</v>
@@ -3239,8 +3671,23 @@
       <c r="W26">
         <v>-0.79</v>
       </c>
+      <c r="X26">
+        <v>-7.47</v>
+      </c>
+      <c r="Y26">
+        <v>26.33</v>
+      </c>
+      <c r="Z26">
+        <v>-2.08</v>
+      </c>
       <c r="AC26" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3248,22 +3695,25 @@
       <c r="AG26">
         <v>7.068479061126709</v>
       </c>
-      <c r="AH26" t="s">
-        <v>230</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300409</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0.72</v>
@@ -3281,7 +3731,7 @@
         <v>102008.36</v>
       </c>
       <c r="J27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -3322,8 +3772,23 @@
       <c r="W27">
         <v>-0.17</v>
       </c>
+      <c r="X27">
+        <v>1.26</v>
+      </c>
+      <c r="Y27">
+        <v>21.8</v>
+      </c>
+      <c r="Z27">
+        <v>3.71</v>
+      </c>
       <c r="AC27" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3331,22 +3796,25 @@
       <c r="AG27">
         <v>0.9338337182998657</v>
       </c>
-      <c r="AH27" t="s">
-        <v>230</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300436</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>4.98</v>
@@ -3364,7 +3832,7 @@
         <v>174320.82</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K28">
         <v>34</v>
@@ -3405,8 +3873,23 @@
       <c r="W28">
         <v>-0.28</v>
       </c>
+      <c r="X28">
+        <v>-8.69</v>
+      </c>
+      <c r="Y28">
+        <v>159.92</v>
+      </c>
+      <c r="Z28">
+        <v>-11.55</v>
+      </c>
       <c r="AC28" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3414,22 +3897,25 @@
       <c r="AG28">
         <v>14.02039051055908</v>
       </c>
-      <c r="AH28" t="s">
-        <v>230</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300453</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-0.09</v>
@@ -3447,7 +3933,7 @@
         <v>36263.85</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3488,8 +3974,23 @@
       <c r="W29">
         <v>-0.32</v>
       </c>
+      <c r="X29">
+        <v>-5.42</v>
+      </c>
+      <c r="Y29">
+        <v>10.88</v>
+      </c>
+      <c r="Z29">
+        <v>-1.89</v>
+      </c>
       <c r="AC29" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3497,22 +3998,25 @@
       <c r="AG29">
         <v>57.6088981628418</v>
       </c>
-      <c r="AH29" t="s">
-        <v>230</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300486</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>7.84</v>
@@ -3530,7 +4034,7 @@
         <v>112828.1</v>
       </c>
       <c r="J30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3571,8 +4075,23 @@
       <c r="W30">
         <v>-0.03</v>
       </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>-100</v>
+      </c>
       <c r="AC30" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3580,22 +4099,25 @@
       <c r="AG30">
         <v>1.845067381858826</v>
       </c>
-      <c r="AH30" t="s">
-        <v>230</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300499</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>9.31</v>
@@ -3613,7 +4135,7 @@
         <v>348681.88</v>
       </c>
       <c r="J31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3654,8 +4176,23 @@
       <c r="W31">
         <v>-1.54</v>
       </c>
+      <c r="X31">
+        <v>-1.64</v>
+      </c>
+      <c r="Y31">
+        <v>33.23</v>
+      </c>
+      <c r="Z31">
+        <v>-1.74</v>
+      </c>
       <c r="AC31" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3663,22 +4200,25 @@
       <c r="AG31">
         <v>-15.40752124786377</v>
       </c>
-      <c r="AH31" t="s">
-        <v>230</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300539</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>9.550000000000001</v>
@@ -3696,7 +4236,7 @@
         <v>85485.88</v>
       </c>
       <c r="J32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K32">
         <v>9</v>
@@ -3737,8 +4277,23 @@
       <c r="W32">
         <v>0.23</v>
       </c>
+      <c r="X32">
+        <v>-7.89</v>
+      </c>
+      <c r="Y32">
+        <v>34.4</v>
+      </c>
+      <c r="Z32">
+        <v>-4.84</v>
+      </c>
       <c r="AC32" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3746,22 +4301,25 @@
       <c r="AG32">
         <v>26.80630493164062</v>
       </c>
-      <c r="AH32" t="s">
-        <v>230</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300547</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>6.95</v>
@@ -3779,7 +4337,7 @@
         <v>240547.61</v>
       </c>
       <c r="J33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3820,8 +4378,23 @@
       <c r="W33">
         <v>0.44</v>
       </c>
+      <c r="X33">
+        <v>-4.13</v>
+      </c>
+      <c r="Y33">
+        <v>53.5</v>
+      </c>
+      <c r="Z33">
+        <v>-5.26</v>
+      </c>
       <c r="AC33" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3829,22 +4402,25 @@
       <c r="AG33">
         <v>5.299954414367676</v>
       </c>
-      <c r="AH33" t="s">
-        <v>230</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300548</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>3.45</v>
@@ -3862,7 +4438,7 @@
         <v>179459.37</v>
       </c>
       <c r="J34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K34">
         <v>26</v>
@@ -3903,8 +4479,23 @@
       <c r="W34">
         <v>0.38</v>
       </c>
+      <c r="X34">
+        <v>6.04</v>
+      </c>
+      <c r="Y34">
+        <v>109.88</v>
+      </c>
+      <c r="Z34">
+        <v>7.12</v>
+      </c>
       <c r="AC34" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3912,22 +4503,25 @@
       <c r="AG34">
         <v>2.618524551391602</v>
       </c>
-      <c r="AH34" t="s">
-        <v>230</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300570</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>9.220000000000001</v>
@@ -3945,7 +4539,7 @@
         <v>313662.31</v>
       </c>
       <c r="J35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3986,8 +4580,23 @@
       <c r="W35">
         <v>1.04</v>
       </c>
+      <c r="X35">
+        <v>-2.92</v>
+      </c>
+      <c r="Y35">
+        <v>128</v>
+      </c>
+      <c r="Z35">
+        <v>-2.79</v>
+      </c>
       <c r="AC35" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3995,22 +4604,25 @@
       <c r="AG35">
         <v>-9.217592239379883</v>
       </c>
-      <c r="AH35" t="s">
-        <v>230</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300579</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-1.2</v>
@@ -4028,7 +4640,7 @@
         <v>42118.2</v>
       </c>
       <c r="J36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -4069,8 +4681,23 @@
       <c r="W36">
         <v>-0.24</v>
       </c>
+      <c r="X36">
+        <v>-0.93</v>
+      </c>
+      <c r="Y36">
+        <v>39.98</v>
+      </c>
+      <c r="Z36">
+        <v>-0.72</v>
+      </c>
       <c r="AC36" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4078,22 +4705,25 @@
       <c r="AG36">
         <v>-0.2727800905704498</v>
       </c>
-      <c r="AH36" t="s">
-        <v>230</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300584</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-3.83</v>
@@ -4111,7 +4741,7 @@
         <v>84779.67</v>
       </c>
       <c r="J37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -4152,8 +4782,23 @@
       <c r="W37">
         <v>-1.27</v>
       </c>
+      <c r="X37">
+        <v>-3.24</v>
+      </c>
+      <c r="Y37">
+        <v>56.69</v>
+      </c>
+      <c r="Z37">
+        <v>-0.09</v>
+      </c>
       <c r="AC37" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4161,22 +4806,25 @@
       <c r="AG37">
         <v>-0.6509572267532349</v>
       </c>
-      <c r="AH37" t="s">
-        <v>230</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300593</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -4194,7 +4842,7 @@
         <v>53601.96</v>
       </c>
       <c r="J38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K38">
         <v>8</v>
@@ -4235,8 +4883,23 @@
       <c r="W38">
         <v>-0.35</v>
       </c>
+      <c r="X38">
+        <v>-1.38</v>
+      </c>
+      <c r="Y38">
+        <v>20.18</v>
+      </c>
+      <c r="Z38">
+        <v>2.02</v>
+      </c>
       <c r="AC38" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4244,22 +4907,25 @@
       <c r="AG38">
         <v>3.369152545928955</v>
       </c>
-      <c r="AH38" t="s">
-        <v>230</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300600</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-3.26</v>
@@ -4277,7 +4943,7 @@
         <v>49909.18</v>
       </c>
       <c r="J39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K39">
         <v>15</v>
@@ -4318,8 +4984,23 @@
       <c r="W39">
         <v>-1.09</v>
       </c>
+      <c r="X39">
+        <v>-3.72</v>
+      </c>
+      <c r="Y39">
+        <v>21.86</v>
+      </c>
+      <c r="Z39">
+        <v>-1.75</v>
+      </c>
       <c r="AC39" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4327,22 +5008,25 @@
       <c r="AG39">
         <v>0.4507535398006439</v>
       </c>
-      <c r="AH39" t="s">
-        <v>230</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300602</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>4.02</v>
@@ -4360,7 +5044,7 @@
         <v>202043.23</v>
       </c>
       <c r="J40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4401,8 +5085,23 @@
       <c r="W40">
         <v>-0.13</v>
       </c>
+      <c r="X40">
+        <v>-2.16</v>
+      </c>
+      <c r="Y40">
+        <v>34.84</v>
+      </c>
+      <c r="Z40">
+        <v>-3.2</v>
+      </c>
       <c r="AC40" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4410,22 +5109,25 @@
       <c r="AG40">
         <v>79.24167633056641</v>
       </c>
-      <c r="AH40" t="s">
-        <v>230</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300609</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-0.57</v>
@@ -4443,7 +5145,7 @@
         <v>51494.02</v>
       </c>
       <c r="J41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K41">
         <v>15</v>
@@ -4484,8 +5186,23 @@
       <c r="W41">
         <v>-0.04</v>
       </c>
+      <c r="X41">
+        <v>-7.92</v>
+      </c>
+      <c r="Y41">
+        <v>60.5</v>
+      </c>
+      <c r="Z41">
+        <v>1.61</v>
+      </c>
       <c r="AC41" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4493,22 +5210,25 @@
       <c r="AG41">
         <v>1.705250382423401</v>
       </c>
-      <c r="AH41" t="s">
-        <v>230</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300620</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>6.86</v>
@@ -4526,7 +5246,7 @@
         <v>360227.81</v>
       </c>
       <c r="J42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K42">
         <v>6</v>
@@ -4567,8 +5287,23 @@
       <c r="W42">
         <v>0.06</v>
       </c>
+      <c r="X42">
+        <v>-6.74</v>
+      </c>
+      <c r="Y42">
+        <v>97.59</v>
+      </c>
+      <c r="Z42">
+        <v>-5.85</v>
+      </c>
       <c r="AC42" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>1</v>
@@ -4576,22 +5311,25 @@
       <c r="AG42">
         <v>1.389239549636841</v>
       </c>
-      <c r="AH42" t="s">
-        <v>231</v>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300631</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>19.99</v>
@@ -4609,7 +5347,7 @@
         <v>104189.66</v>
       </c>
       <c r="J43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4650,8 +5388,23 @@
       <c r="W43">
         <v>2.82</v>
       </c>
+      <c r="X43">
+        <v>-3.77</v>
+      </c>
+      <c r="Y43">
+        <v>38.5</v>
+      </c>
+      <c r="Z43">
+        <v>-2.8</v>
+      </c>
       <c r="AC43" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4659,22 +5412,25 @@
       <c r="AG43">
         <v>15.4266414642334</v>
       </c>
-      <c r="AH43" t="s">
-        <v>230</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300637</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-4.13</v>
@@ -4692,7 +5448,7 @@
         <v>42268.35</v>
       </c>
       <c r="J44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K44">
         <v>5</v>
@@ -4733,8 +5489,23 @@
       <c r="W44">
         <v>-0.86</v>
       </c>
+      <c r="X44">
+        <v>-0.38</v>
+      </c>
+      <c r="Y44">
+        <v>15.99</v>
+      </c>
+      <c r="Z44">
+        <v>-0.25</v>
+      </c>
       <c r="AC44" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4742,22 +5513,25 @@
       <c r="AG44">
         <v>1.724067091941833</v>
       </c>
-      <c r="AH44" t="s">
-        <v>230</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300642</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>20.01</v>
@@ -4775,7 +5549,7 @@
         <v>62118.12</v>
       </c>
       <c r="J45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4816,8 +5590,23 @@
       <c r="W45">
         <v>2.57</v>
       </c>
+      <c r="X45">
+        <v>7.45</v>
+      </c>
+      <c r="Y45">
+        <v>26.08</v>
+      </c>
+      <c r="Z45">
+        <v>12.95</v>
+      </c>
       <c r="AC45" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4825,22 +5614,25 @@
       <c r="AG45">
         <v>18.31634712219238</v>
       </c>
-      <c r="AH45" t="s">
-        <v>231</v>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300648</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>0.66</v>
@@ -4858,7 +5650,7 @@
         <v>26733.65</v>
       </c>
       <c r="J46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K46">
         <v>14</v>
@@ -4899,8 +5691,23 @@
       <c r="W46">
         <v>0.31</v>
       </c>
+      <c r="X46">
+        <v>-6.66</v>
+      </c>
+      <c r="Y46">
+        <v>60.5</v>
+      </c>
+      <c r="Z46">
+        <v>1.89</v>
+      </c>
       <c r="AC46" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4908,22 +5715,25 @@
       <c r="AG46">
         <v>-0.1381120085716248</v>
       </c>
-      <c r="AH46" t="s">
-        <v>230</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300671</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>2.97</v>
@@ -4941,7 +5751,7 @@
         <v>70990.69</v>
       </c>
       <c r="J47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K47">
         <v>6</v>
@@ -4982,8 +5792,23 @@
       <c r="W47">
         <v>0.39</v>
       </c>
+      <c r="X47">
+        <v>-1.75</v>
+      </c>
+      <c r="Y47">
+        <v>42.5</v>
+      </c>
+      <c r="Z47">
+        <v>-0.42</v>
+      </c>
       <c r="AC47" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4991,22 +5816,25 @@
       <c r="AG47">
         <v>4.707738876342773</v>
       </c>
-      <c r="AH47" t="s">
-        <v>230</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300683</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>1.02</v>
@@ -5024,7 +5852,7 @@
         <v>53513.14</v>
       </c>
       <c r="J48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K48">
         <v>22</v>
@@ -5065,8 +5893,23 @@
       <c r="W48">
         <v>0.02</v>
       </c>
+      <c r="X48">
+        <v>-2.56</v>
+      </c>
+      <c r="Y48">
+        <v>55.2</v>
+      </c>
+      <c r="Z48">
+        <v>-4.03</v>
+      </c>
       <c r="AC48" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5074,22 +5917,25 @@
       <c r="AG48">
         <v>2.709159851074219</v>
       </c>
-      <c r="AH48" t="s">
-        <v>230</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300684</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-1.32</v>
@@ -5107,7 +5953,7 @@
         <v>102889.64</v>
       </c>
       <c r="J49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K49">
         <v>15</v>
@@ -5148,8 +5994,23 @@
       <c r="W49">
         <v>-0.37</v>
       </c>
+      <c r="X49">
+        <v>7.47</v>
+      </c>
+      <c r="Y49">
+        <v>39.58</v>
+      </c>
+      <c r="Z49">
+        <v>8.140000000000001</v>
+      </c>
       <c r="AC49" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5157,22 +6018,25 @@
       <c r="AG49">
         <v>-1.630038619041443</v>
       </c>
-      <c r="AH49" t="s">
-        <v>230</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300690</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-4.78</v>
@@ -5190,7 +6054,7 @@
         <v>76344.82000000001</v>
       </c>
       <c r="J50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K50">
         <v>7</v>
@@ -5231,8 +6095,23 @@
       <c r="W50">
         <v>-1.11</v>
       </c>
+      <c r="X50">
+        <v>-1.09</v>
+      </c>
+      <c r="Y50">
+        <v>40.48</v>
+      </c>
+      <c r="Z50">
+        <v>2.74</v>
+      </c>
       <c r="AC50" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5240,22 +6119,25 @@
       <c r="AG50">
         <v>2.044254064559937</v>
       </c>
-      <c r="AH50" t="s">
-        <v>230</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300693</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-2.8</v>
@@ -5273,7 +6155,7 @@
         <v>130638.84</v>
       </c>
       <c r="J51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5314,8 +6196,23 @@
       <c r="W51">
         <v>-0.85</v>
       </c>
+      <c r="X51">
+        <v>-4.85</v>
+      </c>
+      <c r="Y51">
+        <v>39.79</v>
+      </c>
+      <c r="Z51">
+        <v>-5.15</v>
+      </c>
       <c r="AC51" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5323,22 +6220,25 @@
       <c r="AG51">
         <v>6.539348125457764</v>
       </c>
-      <c r="AH51" t="s">
-        <v>230</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300703</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>5.65</v>
@@ -5356,7 +6256,7 @@
         <v>57993.18</v>
       </c>
       <c r="J52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5397,8 +6297,23 @@
       <c r="W52">
         <v>1.14</v>
       </c>
+      <c r="X52">
+        <v>6.52</v>
+      </c>
+      <c r="Y52">
+        <v>38</v>
+      </c>
+      <c r="Z52">
+        <v>6.32</v>
+      </c>
       <c r="AC52" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5406,22 +6321,25 @@
       <c r="AG52">
         <v>4.413463115692139</v>
       </c>
-      <c r="AH52" t="s">
-        <v>230</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300706</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-4.82</v>
@@ -5439,7 +6357,7 @@
         <v>84164.78999999999</v>
       </c>
       <c r="J53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K53">
         <v>18</v>
@@ -5480,8 +6398,23 @@
       <c r="W53">
         <v>-1.51</v>
       </c>
+      <c r="X53">
+        <v>0.47</v>
+      </c>
+      <c r="Y53">
+        <v>50.2</v>
+      </c>
+      <c r="Z53">
+        <v>1.66</v>
+      </c>
       <c r="AC53" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5489,22 +6422,25 @@
       <c r="AG53">
         <v>2.605571031570435</v>
       </c>
-      <c r="AH53" t="s">
-        <v>230</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300724</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>1.82</v>
@@ -5522,7 +6458,7 @@
         <v>156761.23</v>
       </c>
       <c r="J54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5563,8 +6499,23 @@
       <c r="W54">
         <v>0.49</v>
       </c>
+      <c r="X54">
+        <v>3.5</v>
+      </c>
+      <c r="Y54">
+        <v>78.2</v>
+      </c>
+      <c r="Z54">
+        <v>3.44</v>
+      </c>
       <c r="AC54" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -5572,22 +6523,25 @@
       <c r="AG54">
         <v>1.174154758453369</v>
       </c>
-      <c r="AH54" t="s">
-        <v>231</v>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300727</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-2.34</v>
@@ -5605,7 +6559,7 @@
         <v>71910.46000000001</v>
       </c>
       <c r="J55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5646,8 +6600,23 @@
       <c r="W55">
         <v>-0.23</v>
       </c>
+      <c r="X55">
+        <v>-3.32</v>
+      </c>
+      <c r="Y55">
+        <v>41.35</v>
+      </c>
+      <c r="Z55">
+        <v>-2.98</v>
+      </c>
       <c r="AC55" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5655,22 +6624,25 @@
       <c r="AG55">
         <v>-4.50995922088623</v>
       </c>
-      <c r="AH55" t="s">
-        <v>230</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300730</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-1.74</v>
@@ -5688,7 +6660,7 @@
         <v>130695.1</v>
       </c>
       <c r="J56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5729,8 +6701,23 @@
       <c r="W56">
         <v>-0.75</v>
       </c>
+      <c r="X56">
+        <v>-4.92</v>
+      </c>
+      <c r="Y56">
+        <v>19.89</v>
+      </c>
+      <c r="Z56">
+        <v>-4.74</v>
+      </c>
       <c r="AC56" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5738,22 +6725,25 @@
       <c r="AG56">
         <v>1.987518191337585</v>
       </c>
-      <c r="AH56" t="s">
-        <v>230</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300731</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-4.89</v>
@@ -5771,7 +6761,7 @@
         <v>112829.62</v>
       </c>
       <c r="J57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K57">
         <v>13</v>
@@ -5812,8 +6802,23 @@
       <c r="W57">
         <v>-1.32</v>
       </c>
+      <c r="X57">
+        <v>-6.48</v>
+      </c>
+      <c r="Y57">
+        <v>53.93</v>
+      </c>
+      <c r="Z57">
+        <v>-4.7</v>
+      </c>
       <c r="AC57" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5821,22 +6826,25 @@
       <c r="AG57">
         <v>5.154481887817383</v>
       </c>
-      <c r="AH57" t="s">
-        <v>230</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300752</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>0.38</v>
@@ -5854,7 +6862,7 @@
         <v>21140.66</v>
       </c>
       <c r="J58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5895,8 +6903,23 @@
       <c r="W58">
         <v>-0.31</v>
       </c>
+      <c r="X58">
+        <v>8.59</v>
+      </c>
+      <c r="Y58">
+        <v>27.45</v>
+      </c>
+      <c r="Z58">
+        <v>14.42</v>
+      </c>
       <c r="AC58" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5904,22 +6927,25 @@
       <c r="AG58">
         <v>-0.1370076686143875</v>
       </c>
-      <c r="AH58" t="s">
-        <v>230</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300767</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>4.83</v>
@@ -5937,7 +6963,7 @@
         <v>68670.67999999999</v>
       </c>
       <c r="J59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -5978,8 +7004,23 @@
       <c r="W59">
         <v>-1.35</v>
       </c>
+      <c r="X59">
+        <v>-0.8</v>
+      </c>
+      <c r="Y59">
+        <v>22.55</v>
+      </c>
+      <c r="Z59">
+        <v>8.31</v>
+      </c>
       <c r="AC59" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5987,22 +7028,25 @@
       <c r="AG59">
         <v>49.79610443115234</v>
       </c>
-      <c r="AH59" t="s">
-        <v>230</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>300803</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>0.75</v>
@@ -6020,7 +7064,7 @@
         <v>725815.35</v>
       </c>
       <c r="J60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K60">
         <v>6</v>
@@ -6061,8 +7105,23 @@
       <c r="W60">
         <v>-0.66</v>
       </c>
+      <c r="X60">
+        <v>-1.78</v>
+      </c>
+      <c r="Y60">
+        <v>127.18</v>
+      </c>
+      <c r="Z60">
+        <v>0.22</v>
+      </c>
       <c r="AC60" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6070,22 +7129,25 @@
       <c r="AG60">
         <v>121.3663024902344</v>
       </c>
-      <c r="AH60" t="s">
-        <v>230</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>300806</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-0.25</v>
@@ -6103,7 +7165,7 @@
         <v>42675.8</v>
       </c>
       <c r="J61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -6144,8 +7206,23 @@
       <c r="W61">
         <v>-0.18</v>
       </c>
+      <c r="X61">
+        <v>13.3</v>
+      </c>
+      <c r="Y61">
+        <v>26.55</v>
+      </c>
+      <c r="Z61">
+        <v>10.81</v>
+      </c>
       <c r="AC61" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6153,22 +7230,25 @@
       <c r="AG61">
         <v>3.391757249832153</v>
       </c>
-      <c r="AH61" t="s">
-        <v>230</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>300811</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-2.83</v>
@@ -6186,7 +7266,7 @@
         <v>79755.87</v>
       </c>
       <c r="J62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6227,8 +7307,23 @@
       <c r="W62">
         <v>0.12</v>
       </c>
+      <c r="X62">
+        <v>-3.49</v>
+      </c>
+      <c r="Y62">
+        <v>73.5</v>
+      </c>
+      <c r="Z62">
+        <v>-0.73</v>
+      </c>
       <c r="AC62" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -6236,22 +7331,25 @@
       <c r="AG62">
         <v>98.26245880126953</v>
       </c>
-      <c r="AH62" t="s">
-        <v>231</v>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>300814</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-1.28</v>
@@ -6269,7 +7367,7 @@
         <v>75722.73</v>
       </c>
       <c r="J63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6310,8 +7408,23 @@
       <c r="W63">
         <v>-0.15</v>
       </c>
+      <c r="X63">
+        <v>-3.34</v>
+      </c>
+      <c r="Y63">
+        <v>48.57</v>
+      </c>
+      <c r="Z63">
+        <v>-2.86</v>
+      </c>
       <c r="AC63" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6319,22 +7432,25 @@
       <c r="AG63">
         <v>48.20159530639648</v>
       </c>
-      <c r="AH63" t="s">
-        <v>230</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>300815</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-5.62</v>
@@ -6352,7 +7468,7 @@
         <v>85575.07000000001</v>
       </c>
       <c r="J64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K64">
         <v>6</v>
@@ -6393,8 +7509,23 @@
       <c r="W64">
         <v>-0.7</v>
       </c>
+      <c r="X64">
+        <v>-1.55</v>
+      </c>
+      <c r="Y64">
+        <v>28.87</v>
+      </c>
+      <c r="Z64">
+        <v>-1.27</v>
+      </c>
       <c r="AC64" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6402,22 +7533,25 @@
       <c r="AG64">
         <v>2.371153831481934</v>
       </c>
-      <c r="AH64" t="s">
-        <v>230</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>300830</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>4.45</v>
@@ -6435,7 +7569,7 @@
         <v>63190.87</v>
       </c>
       <c r="J65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6476,8 +7610,23 @@
       <c r="W65">
         <v>0.84</v>
       </c>
+      <c r="X65">
+        <v>-2.46</v>
+      </c>
+      <c r="Y65">
+        <v>13.5</v>
+      </c>
+      <c r="Z65">
+        <v>-0.74</v>
+      </c>
       <c r="AC65" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6485,22 +7634,25 @@
       <c r="AG65">
         <v>4.075364589691162</v>
       </c>
-      <c r="AH65" t="s">
-        <v>230</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>300835</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-1.12</v>
@@ -6518,7 +7670,7 @@
         <v>51076.75</v>
       </c>
       <c r="J66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K66">
         <v>21</v>
@@ -6559,8 +7711,23 @@
       <c r="W66">
         <v>-0.64</v>
       </c>
+      <c r="X66">
+        <v>-0.99</v>
+      </c>
+      <c r="Y66">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="Z66">
+        <v>0.09</v>
+      </c>
       <c r="AC66" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6568,22 +7735,25 @@
       <c r="AG66">
         <v>1.230504989624023</v>
       </c>
-      <c r="AH66" t="s">
-        <v>230</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>300843</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-3.83</v>
@@ -6601,7 +7771,7 @@
         <v>76467.74000000001</v>
       </c>
       <c r="J67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6642,8 +7812,23 @@
       <c r="W67">
         <v>-0.04</v>
       </c>
+      <c r="X67">
+        <v>-5.27</v>
+      </c>
+      <c r="Y67">
+        <v>47.93</v>
+      </c>
+      <c r="Z67">
+        <v>-4.16</v>
+      </c>
       <c r="AC67" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6651,22 +7836,25 @@
       <c r="AG67">
         <v>-0.309849351644516</v>
       </c>
-      <c r="AH67" t="s">
-        <v>230</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>300870</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>0.86</v>
@@ -6684,7 +7872,7 @@
         <v>146681.51</v>
       </c>
       <c r="J68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K68">
         <v>5</v>
@@ -6725,8 +7913,23 @@
       <c r="W68">
         <v>-0.43</v>
       </c>
+      <c r="X68">
+        <v>-3.77</v>
+      </c>
+      <c r="Y68">
+        <v>249.85</v>
+      </c>
+      <c r="Z68">
+        <v>-0.51</v>
+      </c>
       <c r="AC68" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6734,22 +7937,25 @@
       <c r="AG68">
         <v>0.1734433770179749</v>
       </c>
-      <c r="AH68" t="s">
-        <v>230</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>300902</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>5.07</v>
@@ -6767,7 +7973,7 @@
         <v>37681.86</v>
       </c>
       <c r="J69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K69">
         <v>5</v>
@@ -6808,8 +8014,23 @@
       <c r="W69">
         <v>0.22</v>
       </c>
+      <c r="X69">
+        <v>-0.32</v>
+      </c>
+      <c r="Y69">
+        <v>33.38</v>
+      </c>
+      <c r="Z69">
+        <v>7.33</v>
+      </c>
       <c r="AC69" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6817,22 +8038,25 @@
       <c r="AG69">
         <v>1.761370778083801</v>
       </c>
-      <c r="AH69" t="s">
-        <v>230</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>300907</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>6.92</v>
@@ -6850,7 +8074,7 @@
         <v>49197.94</v>
       </c>
       <c r="J70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -6891,8 +8115,23 @@
       <c r="W70">
         <v>0.59</v>
       </c>
+      <c r="X70">
+        <v>-4.69</v>
+      </c>
+      <c r="Y70">
+        <v>41.24</v>
+      </c>
+      <c r="Z70">
+        <v>1.08</v>
+      </c>
       <c r="AC70" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6900,22 +8139,25 @@
       <c r="AG70">
         <v>-2.614694833755493</v>
       </c>
-      <c r="AH70" t="s">
-        <v>230</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>300913</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>17.07</v>
@@ -6933,7 +8175,7 @@
         <v>150849.78</v>
       </c>
       <c r="J71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6974,8 +8216,23 @@
       <c r="W71">
         <v>0.73</v>
       </c>
+      <c r="X71">
+        <v>-3.49</v>
+      </c>
+      <c r="Y71">
+        <v>58.48</v>
+      </c>
+      <c r="Z71">
+        <v>-6.89</v>
+      </c>
       <c r="AC71" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6983,22 +8240,25 @@
       <c r="AG71">
         <v>5.234453201293945</v>
       </c>
-      <c r="AH71" t="s">
-        <v>230</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>300951</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>3.87</v>
@@ -7016,7 +8276,7 @@
         <v>44441.36</v>
       </c>
       <c r="J72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -7057,8 +8317,23 @@
       <c r="W72">
         <v>0.33</v>
       </c>
+      <c r="X72">
+        <v>4.14</v>
+      </c>
+      <c r="Y72">
+        <v>43.98</v>
+      </c>
+      <c r="Z72">
+        <v>5.85</v>
+      </c>
       <c r="AC72" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7066,22 +8341,25 @@
       <c r="AG72">
         <v>2.235661268234253</v>
       </c>
-      <c r="AH72" t="s">
-        <v>230</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>300990</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-1.77</v>
@@ -7099,7 +8377,7 @@
         <v>38262.91</v>
       </c>
       <c r="J73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7140,8 +8418,23 @@
       <c r="W73">
         <v>-0.16</v>
       </c>
+      <c r="X73">
+        <v>-2.19</v>
+      </c>
+      <c r="Y73">
+        <v>78.3</v>
+      </c>
+      <c r="Z73">
+        <v>2.9</v>
+      </c>
       <c r="AC73" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7149,22 +8442,25 @@
       <c r="AG73">
         <v>-0.4861927628517151</v>
       </c>
-      <c r="AH73" t="s">
-        <v>230</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301007</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>1.01</v>
@@ -7182,7 +8478,7 @@
         <v>34969.63</v>
       </c>
       <c r="J74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K74">
         <v>5</v>
@@ -7223,8 +8519,23 @@
       <c r="W74">
         <v>-0.04</v>
       </c>
+      <c r="X74">
+        <v>3.69</v>
+      </c>
+      <c r="Y74">
+        <v>50.1</v>
+      </c>
+      <c r="Z74">
+        <v>14.02</v>
+      </c>
       <c r="AC74" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7232,22 +8543,25 @@
       <c r="AG74">
         <v>-1.461438655853271</v>
       </c>
-      <c r="AH74" t="s">
-        <v>230</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301018</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-5.14</v>
@@ -7265,7 +8579,7 @@
         <v>116747.57</v>
       </c>
       <c r="J75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K75">
         <v>5</v>
@@ -7306,8 +8620,23 @@
       <c r="W75">
         <v>-0.39</v>
       </c>
+      <c r="X75">
+        <v>1.98</v>
+      </c>
+      <c r="Y75">
+        <v>71.5</v>
+      </c>
+      <c r="Z75">
+        <v>2.69</v>
+      </c>
       <c r="AC75" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7315,22 +8644,25 @@
       <c r="AG75">
         <v>15.51968669891357</v>
       </c>
-      <c r="AH75" t="s">
-        <v>230</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301021</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>-2.16</v>
@@ -7348,7 +8680,7 @@
         <v>19518.89</v>
       </c>
       <c r="J76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K76">
         <v>6</v>
@@ -7389,8 +8721,23 @@
       <c r="W76">
         <v>-0.27</v>
       </c>
+      <c r="X76">
+        <v>-1.2</v>
+      </c>
+      <c r="Y76">
+        <v>36.76</v>
+      </c>
+      <c r="Z76">
+        <v>-0.84</v>
+      </c>
       <c r="AC76" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7398,22 +8745,25 @@
       <c r="AG76">
         <v>8.289042472839355</v>
       </c>
-      <c r="AH76" t="s">
-        <v>230</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301038</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>0.9399999999999999</v>
@@ -7431,7 +8781,7 @@
         <v>44126.34</v>
       </c>
       <c r="J77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K77">
         <v>16</v>
@@ -7472,8 +8822,23 @@
       <c r="W77">
         <v>-0.34</v>
       </c>
+      <c r="X77">
+        <v>-0.77</v>
+      </c>
+      <c r="Y77">
+        <v>35.07</v>
+      </c>
+      <c r="Z77">
+        <v>-3.89</v>
+      </c>
       <c r="AC77" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7481,22 +8846,25 @@
       <c r="AG77">
         <v>3.777145147323608</v>
       </c>
-      <c r="AH77" t="s">
-        <v>230</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301052</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>2.37</v>
@@ -7514,7 +8882,7 @@
         <v>19060.22</v>
       </c>
       <c r="J78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K78">
         <v>5</v>
@@ -7555,8 +8923,23 @@
       <c r="W78">
         <v>0.34</v>
       </c>
+      <c r="X78">
+        <v>0.36</v>
+      </c>
+      <c r="Y78">
+        <v>67.92</v>
+      </c>
+      <c r="Z78">
+        <v>0.98</v>
+      </c>
       <c r="AC78" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7564,22 +8947,25 @@
       <c r="AG78">
         <v>1.665818810462952</v>
       </c>
-      <c r="AH78" t="s">
-        <v>230</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301069</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-3.79</v>
@@ -7597,7 +8983,7 @@
         <v>51073.16</v>
       </c>
       <c r="J79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K79">
         <v>10</v>
@@ -7638,8 +9024,23 @@
       <c r="W79">
         <v>-0.51</v>
       </c>
+      <c r="X79">
+        <v>1.2</v>
+      </c>
+      <c r="Y79">
+        <v>26.58</v>
+      </c>
+      <c r="Z79">
+        <v>7.96</v>
+      </c>
       <c r="AC79" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7647,22 +9048,25 @@
       <c r="AG79">
         <v>2.480814933776855</v>
       </c>
-      <c r="AH79" t="s">
-        <v>230</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301076</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-4.3</v>
@@ -7680,7 +9084,7 @@
         <v>103184.19</v>
       </c>
       <c r="J80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K80">
         <v>10</v>
@@ -7721,8 +9125,23 @@
       <c r="W80">
         <v>-1.48</v>
       </c>
+      <c r="X80">
+        <v>-3.61</v>
+      </c>
+      <c r="Y80">
+        <v>60.95</v>
+      </c>
+      <c r="Z80">
+        <v>1.41</v>
+      </c>
       <c r="AC80" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7730,22 +9149,25 @@
       <c r="AG80">
         <v>33.65346145629883</v>
       </c>
-      <c r="AH80" t="s">
-        <v>230</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301086</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>5.03</v>
@@ -7763,7 +9185,7 @@
         <v>40893.69</v>
       </c>
       <c r="J81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -7804,8 +9226,23 @@
       <c r="W81">
         <v>-0.33</v>
       </c>
+      <c r="X81">
+        <v>5.6</v>
+      </c>
+      <c r="Y81">
+        <v>73.8</v>
+      </c>
+      <c r="Z81">
+        <v>4.87</v>
+      </c>
       <c r="AC81" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7813,22 +9250,25 @@
       <c r="AG81">
         <v>5.509443759918213</v>
       </c>
-      <c r="AH81" t="s">
-        <v>230</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301095</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>-4.42</v>
@@ -7846,7 +9286,7 @@
         <v>76863.39999999999</v>
       </c>
       <c r="J82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K82">
         <v>15</v>
@@ -7887,8 +9327,23 @@
       <c r="W82">
         <v>-0.3</v>
       </c>
+      <c r="X82">
+        <v>0.6</v>
+      </c>
+      <c r="Y82">
+        <v>90.34999999999999</v>
+      </c>
+      <c r="Z82">
+        <v>-0.37</v>
+      </c>
       <c r="AC82" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7896,22 +9351,25 @@
       <c r="AG82">
         <v>3.045400857925415</v>
       </c>
-      <c r="AH82" t="s">
-        <v>230</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301120</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>10.99</v>
@@ -7929,7 +9387,7 @@
         <v>83287.09</v>
       </c>
       <c r="J83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K83">
         <v>11</v>
@@ -7970,8 +9428,23 @@
       <c r="W83">
         <v>1.13</v>
       </c>
+      <c r="X83">
+        <v>-3.1</v>
+      </c>
+      <c r="Y83">
+        <v>16.5</v>
+      </c>
+      <c r="Z83">
+        <v>-5.01</v>
+      </c>
       <c r="AC83" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7979,22 +9452,25 @@
       <c r="AG83">
         <v>4.426620483398438</v>
       </c>
-      <c r="AH83" t="s">
-        <v>230</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301123</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-2.52</v>
@@ -8012,7 +9488,7 @@
         <v>74642.62</v>
       </c>
       <c r="J84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K84">
         <v>11</v>
@@ -8053,8 +9529,23 @@
       <c r="W84">
         <v>-0.24</v>
       </c>
+      <c r="X84">
+        <v>-5.46</v>
+      </c>
+      <c r="Y84">
+        <v>48</v>
+      </c>
+      <c r="Z84">
+        <v>4.12</v>
+      </c>
       <c r="AC84" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -8062,22 +9553,25 @@
       <c r="AG84">
         <v>4.934836864471436</v>
       </c>
-      <c r="AH84" t="s">
-        <v>230</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301128</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>17.1</v>
@@ -8095,7 +9589,7 @@
         <v>132901</v>
       </c>
       <c r="J85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K85">
         <v>5</v>
@@ -8136,8 +9630,23 @@
       <c r="W85">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X85">
+        <v>-1.27</v>
+      </c>
+      <c r="Y85">
+        <v>101.66</v>
+      </c>
+      <c r="Z85">
+        <v>-2.77</v>
+      </c>
       <c r="AC85" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>1</v>
@@ -8145,22 +9654,25 @@
       <c r="AG85">
         <v>2.862878561019897</v>
       </c>
-      <c r="AH85" t="s">
-        <v>230</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301151</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>1.75</v>
@@ -8178,7 +9690,7 @@
         <v>56844.36</v>
       </c>
       <c r="J86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -8219,8 +9731,23 @@
       <c r="W86">
         <v>-1.82</v>
       </c>
+      <c r="X86">
+        <v>-2.7</v>
+      </c>
+      <c r="Y86">
+        <v>25.69</v>
+      </c>
+      <c r="Z86">
+        <v>-3.85</v>
+      </c>
       <c r="AC86" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8228,22 +9755,25 @@
       <c r="AG86">
         <v>2.416723251342773</v>
       </c>
-      <c r="AH86" t="s">
-        <v>230</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>301161</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-2.58</v>
@@ -8261,7 +9791,7 @@
         <v>29120.46</v>
       </c>
       <c r="J87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K87">
         <v>12</v>
@@ -8302,8 +9832,23 @@
       <c r="W87">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X87">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y87">
+        <v>46.06</v>
+      </c>
+      <c r="Z87">
+        <v>4.21</v>
+      </c>
       <c r="AC87" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8311,22 +9856,25 @@
       <c r="AG87">
         <v>4.230604648590088</v>
       </c>
-      <c r="AH87" t="s">
-        <v>230</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>301165</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>2.61</v>
@@ -8344,7 +9892,7 @@
         <v>149248.15</v>
       </c>
       <c r="J88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K88">
         <v>6</v>
@@ -8385,8 +9933,23 @@
       <c r="W88">
         <v>-0.39</v>
       </c>
+      <c r="X88">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y88">
+        <v>85</v>
+      </c>
+      <c r="Z88">
+        <v>1.2</v>
+      </c>
       <c r="AC88" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8394,22 +9957,25 @@
       <c r="AG88">
         <v>1.191458344459534</v>
       </c>
-      <c r="AH88" t="s">
-        <v>230</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>301181</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>-4</v>
@@ -8427,7 +9993,7 @@
         <v>20881.57</v>
       </c>
       <c r="J89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K89">
         <v>5</v>
@@ -8468,8 +10034,23 @@
       <c r="W89">
         <v>-2</v>
       </c>
+      <c r="X89">
+        <v>-0.7</v>
+      </c>
+      <c r="Y89">
+        <v>32.86</v>
+      </c>
+      <c r="Z89">
+        <v>-1.59</v>
+      </c>
       <c r="AC89" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8477,22 +10058,25 @@
       <c r="AG89">
         <v>0.05199525505304337</v>
       </c>
-      <c r="AH89" t="s">
-        <v>230</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>301183</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>7.48</v>
@@ -8510,7 +10094,7 @@
         <v>84032.22</v>
       </c>
       <c r="J90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -8551,8 +10135,23 @@
       <c r="W90">
         <v>0.71</v>
       </c>
+      <c r="X90">
+        <v>-3.17</v>
+      </c>
+      <c r="Y90">
+        <v>80.36</v>
+      </c>
+      <c r="Z90">
+        <v>1.89</v>
+      </c>
       <c r="AC90" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8560,22 +10159,25 @@
       <c r="AG90">
         <v>2.178263187408447</v>
       </c>
-      <c r="AH90" t="s">
-        <v>230</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>301196</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-2.73</v>
@@ -8593,7 +10195,7 @@
         <v>50064.12</v>
       </c>
       <c r="J91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K91">
         <v>5</v>
@@ -8634,8 +10236,23 @@
       <c r="W91">
         <v>-0.28</v>
       </c>
+      <c r="X91">
+        <v>-1.3</v>
+      </c>
+      <c r="Y91">
+        <v>97.86</v>
+      </c>
+      <c r="Z91">
+        <v>-0.61</v>
+      </c>
       <c r="AC91" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8643,22 +10260,25 @@
       <c r="AG91">
         <v>0.1841885298490524</v>
       </c>
-      <c r="AH91" t="s">
-        <v>230</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>301202</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>0.9</v>
@@ -8676,7 +10296,7 @@
         <v>30123.19</v>
       </c>
       <c r="J92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -8717,8 +10337,23 @@
       <c r="W92">
         <v>-1.57</v>
       </c>
+      <c r="X92">
+        <v>1.12</v>
+      </c>
+      <c r="Y92">
+        <v>52.69</v>
+      </c>
+      <c r="Z92">
+        <v>-0.4</v>
+      </c>
       <c r="AC92" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8726,22 +10361,25 @@
       <c r="AG92">
         <v>-1.586565256118774</v>
       </c>
-      <c r="AH92" t="s">
-        <v>230</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>301205</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>9.890000000000001</v>
@@ -8759,7 +10397,7 @@
         <v>110128.68</v>
       </c>
       <c r="J93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -8800,8 +10438,23 @@
       <c r="W93">
         <v>0.64</v>
       </c>
+      <c r="X93">
+        <v>-1.9</v>
+      </c>
+      <c r="Y93">
+        <v>111.5</v>
+      </c>
+      <c r="Z93">
+        <v>-2.18</v>
+      </c>
       <c r="AC93" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8809,22 +10462,25 @@
       <c r="AG93">
         <v>-2.439202308654785</v>
       </c>
-      <c r="AH93" t="s">
-        <v>230</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>301217</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>-3.08</v>
@@ -8842,7 +10498,7 @@
         <v>130081.68</v>
       </c>
       <c r="J94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K94">
         <v>32</v>
@@ -8883,8 +10539,23 @@
       <c r="W94">
         <v>-0.35</v>
       </c>
+      <c r="X94">
+        <v>1.24</v>
+      </c>
+      <c r="Y94">
+        <v>33.95</v>
+      </c>
+      <c r="Z94">
+        <v>4.91</v>
+      </c>
       <c r="AC94" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8892,22 +10563,25 @@
       <c r="AG94">
         <v>-1.538177371025085</v>
       </c>
-      <c r="AH94" t="s">
-        <v>230</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>301226</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>5.19</v>
@@ -8925,7 +10599,7 @@
         <v>54598.08</v>
       </c>
       <c r="J95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -8966,8 +10640,23 @@
       <c r="W95">
         <v>-0.9</v>
       </c>
+      <c r="X95">
+        <v>-5.77</v>
+      </c>
+      <c r="Y95">
+        <v>40.34</v>
+      </c>
+      <c r="Z95">
+        <v>-4.7</v>
+      </c>
       <c r="AC95" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8975,22 +10664,25 @@
       <c r="AG95">
         <v>5.468850612640381</v>
       </c>
-      <c r="AH95" t="s">
-        <v>230</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>301251</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>-2.97</v>
@@ -9008,7 +10700,7 @@
         <v>53261.98</v>
       </c>
       <c r="J96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K96">
         <v>10</v>
@@ -9049,8 +10741,23 @@
       <c r="W96">
         <v>-1.29</v>
       </c>
+      <c r="X96">
+        <v>-3.93</v>
+      </c>
+      <c r="Y96">
+        <v>59.19</v>
+      </c>
+      <c r="Z96">
+        <v>-2.17</v>
+      </c>
       <c r="AC96" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -9058,22 +10765,25 @@
       <c r="AG96">
         <v>3.035798072814941</v>
       </c>
-      <c r="AH96" t="s">
-        <v>230</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>301323</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>0.38</v>
@@ -9091,7 +10801,7 @@
         <v>19996.44</v>
       </c>
       <c r="J97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K97">
         <v>6</v>
@@ -9132,8 +10842,23 @@
       <c r="W97">
         <v>-0.05</v>
       </c>
+      <c r="X97">
+        <v>0.3</v>
+      </c>
+      <c r="Y97">
+        <v>62.5</v>
+      </c>
+      <c r="Z97">
+        <v>1.96</v>
+      </c>
       <c r="AC97" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9141,22 +10866,25 @@
       <c r="AG97">
         <v>2.065722465515137</v>
       </c>
-      <c r="AH97" t="s">
-        <v>230</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>301326</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>-2.38</v>
@@ -9174,7 +10902,7 @@
         <v>36648.73</v>
       </c>
       <c r="J98" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K98">
         <v>8</v>
@@ -9215,8 +10943,23 @@
       <c r="W98">
         <v>-0.67</v>
       </c>
+      <c r="X98">
+        <v>-3.55</v>
+      </c>
+      <c r="Y98">
+        <v>107.69</v>
+      </c>
+      <c r="Z98">
+        <v>-0.18</v>
+      </c>
       <c r="AC98" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9224,22 +10967,25 @@
       <c r="AG98">
         <v>0.2324427962303162</v>
       </c>
-      <c r="AH98" t="s">
-        <v>230</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>301345</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>2.47</v>
@@ -9257,7 +11003,7 @@
         <v>22536.9</v>
       </c>
       <c r="J99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K99">
         <v>19</v>
@@ -9298,8 +11044,23 @@
       <c r="W99">
         <v>-0.03</v>
       </c>
+      <c r="X99">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y99">
+        <v>180.98</v>
+      </c>
+      <c r="Z99">
+        <v>2.72</v>
+      </c>
       <c r="AC99" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9307,22 +11068,25 @@
       <c r="AG99">
         <v>1.127030849456787</v>
       </c>
-      <c r="AH99" t="s">
-        <v>230</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>301357</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>4.75</v>
@@ -9340,7 +11104,7 @@
         <v>166794.42</v>
       </c>
       <c r="J100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K100">
         <v>16</v>
@@ -9381,8 +11145,23 @@
       <c r="W100">
         <v>-0.2</v>
       </c>
+      <c r="X100">
+        <v>-2.49</v>
+      </c>
+      <c r="Y100">
+        <v>182.96</v>
+      </c>
+      <c r="Z100">
+        <v>2.21</v>
+      </c>
       <c r="AC100" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9390,22 +11169,25 @@
       <c r="AG100">
         <v>2.597312211990356</v>
       </c>
-      <c r="AH100" t="s">
-        <v>230</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>301377</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>-0.47</v>
@@ -9423,7 +11205,7 @@
         <v>29056.46</v>
       </c>
       <c r="J101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K101">
         <v>7</v>
@@ -9464,8 +11246,23 @@
       <c r="W101">
         <v>0.03</v>
       </c>
+      <c r="X101">
+        <v>-1.72</v>
+      </c>
+      <c r="Y101">
+        <v>59.85</v>
+      </c>
+      <c r="Z101">
+        <v>-5</v>
+      </c>
       <c r="AC101" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9473,22 +11270,25 @@
       <c r="AG101">
         <v>3.514133930206299</v>
       </c>
-      <c r="AH101" t="s">
-        <v>230</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>301397</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>-2.63</v>
@@ -9506,7 +11306,7 @@
         <v>58873.55</v>
       </c>
       <c r="J102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K102">
         <v>9</v>
@@ -9547,8 +11347,23 @@
       <c r="W102">
         <v>-0.4</v>
       </c>
+      <c r="X102">
+        <v>-2.89</v>
+      </c>
+      <c r="Y102">
+        <v>46.1</v>
+      </c>
+      <c r="Z102">
+        <v>-3.58</v>
+      </c>
       <c r="AC102" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9556,22 +11371,25 @@
       <c r="AG102">
         <v>3.471248865127563</v>
       </c>
-      <c r="AH102" t="s">
-        <v>230</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>301398</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>2.18</v>
@@ -9589,7 +11407,7 @@
         <v>55443.19</v>
       </c>
       <c r="J103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K103">
         <v>3</v>
@@ -9630,8 +11448,23 @@
       <c r="W103">
         <v>-0.26</v>
       </c>
+      <c r="X103">
+        <v>0.74</v>
+      </c>
+      <c r="Y103">
+        <v>59.58</v>
+      </c>
+      <c r="Z103">
+        <v>10.44</v>
+      </c>
       <c r="AC103" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>1</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9639,22 +11472,25 @@
       <c r="AG103">
         <v>0.5290459990501404</v>
       </c>
-      <c r="AH103" t="s">
-        <v>230</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>301486</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>-3.87</v>
@@ -9672,7 +11508,7 @@
         <v>74161.17999999999</v>
       </c>
       <c r="J104" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K104">
         <v>5</v>
@@ -9713,8 +11549,23 @@
       <c r="W104">
         <v>-0.43</v>
       </c>
+      <c r="X104">
+        <v>-4.81</v>
+      </c>
+      <c r="Y104">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="Z104">
+        <v>-3.77</v>
+      </c>
       <c r="AC104" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -9722,22 +11573,25 @@
       <c r="AG104">
         <v>1.238218426704407</v>
       </c>
-      <c r="AH104" t="s">
-        <v>230</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>301489</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>7.81</v>
@@ -9755,7 +11609,7 @@
         <v>84848.22</v>
       </c>
       <c r="J105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K105">
         <v>14</v>
@@ -9796,8 +11650,23 @@
       <c r="W105">
         <v>0.4</v>
       </c>
+      <c r="X105">
+        <v>-3.47</v>
+      </c>
+      <c r="Y105">
+        <v>188.88</v>
+      </c>
+      <c r="Z105">
+        <v>2.75</v>
+      </c>
       <c r="AC105" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -9805,22 +11674,25 @@
       <c r="AG105">
         <v>2.083005428314209</v>
       </c>
-      <c r="AH105" t="s">
-        <v>230</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>301526</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>-4.99</v>
@@ -9838,7 +11710,7 @@
         <v>149815.21</v>
       </c>
       <c r="J106" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K106">
         <v>9</v>
@@ -9879,8 +11751,23 @@
       <c r="W106">
         <v>-0.3</v>
       </c>
+      <c r="X106">
+        <v>-2.28</v>
+      </c>
+      <c r="Y106">
+        <v>6.67</v>
+      </c>
+      <c r="Z106">
+        <v>0.15</v>
+      </c>
       <c r="AC106" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -9888,22 +11775,25 @@
       <c r="AG106">
         <v>1.012089729309082</v>
       </c>
-      <c r="AH106" t="s">
-        <v>230</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>301626</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107">
         <v>-2.32</v>
@@ -9921,7 +11811,7 @@
         <v>30495.46</v>
       </c>
       <c r="J107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K107">
         <v>3</v>
@@ -9962,8 +11852,23 @@
       <c r="W107">
         <v>0.18</v>
       </c>
+      <c r="X107">
+        <v>9.17</v>
+      </c>
+      <c r="Y107">
+        <v>180.63</v>
+      </c>
+      <c r="Z107">
+        <v>16.36</v>
+      </c>
       <c r="AC107" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>1</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -9971,22 +11876,25 @@
       <c r="AG107">
         <v>0.1893695443868637</v>
       </c>
-      <c r="AH107" t="s">
-        <v>230</v>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>688035</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>7.02</v>
@@ -10004,7 +11912,7 @@
         <v>65500.83</v>
       </c>
       <c r="J108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -10045,8 +11953,23 @@
       <c r="W108">
         <v>1.07</v>
       </c>
+      <c r="X108">
+        <v>1.58</v>
+      </c>
+      <c r="Y108">
+        <v>63.03</v>
+      </c>
+      <c r="Z108">
+        <v>2.82</v>
+      </c>
       <c r="AC108" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -10054,22 +11977,25 @@
       <c r="AG108">
         <v>3.171701908111572</v>
       </c>
-      <c r="AH108" t="s">
-        <v>230</v>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>688108</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>3.52</v>
@@ -10087,7 +12013,7 @@
         <v>238365.41</v>
       </c>
       <c r="J109" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K109">
         <v>7</v>
@@ -10128,8 +12054,23 @@
       <c r="W109">
         <v>-1.24</v>
       </c>
+      <c r="X109">
+        <v>-7.77</v>
+      </c>
+      <c r="Y109">
+        <v>41.85</v>
+      </c>
+      <c r="Z109">
+        <v>-2.54</v>
+      </c>
       <c r="AC109" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -10137,22 +12078,25 @@
       <c r="AG109">
         <v>-18.3830680847168</v>
       </c>
-      <c r="AH109" t="s">
-        <v>230</v>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>688110</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110">
         <v>-2.98</v>
@@ -10170,7 +12114,7 @@
         <v>215167</v>
       </c>
       <c r="J110" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K110">
         <v>16</v>
@@ -10211,8 +12155,23 @@
       <c r="W110">
         <v>-0.65</v>
       </c>
+      <c r="X110">
+        <v>-3.75</v>
+      </c>
+      <c r="Y110">
+        <v>102.98</v>
+      </c>
+      <c r="Z110">
+        <v>2.07</v>
+      </c>
       <c r="AC110" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -10220,22 +12179,25 @@
       <c r="AG110">
         <v>2.943597555160522</v>
       </c>
-      <c r="AH110" t="s">
-        <v>230</v>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>688146</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111">
         <v>-0.37</v>
@@ -10253,7 +12215,7 @@
         <v>40025.01</v>
       </c>
       <c r="J111" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K111">
         <v>5</v>
@@ -10294,8 +12256,23 @@
       <c r="W111">
         <v>0.18</v>
       </c>
+      <c r="X111">
+        <v>1.77</v>
+      </c>
+      <c r="Y111">
+        <v>40.48</v>
+      </c>
+      <c r="Z111">
+        <v>0.47</v>
+      </c>
       <c r="AC111" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -10303,22 +12280,25 @@
       <c r="AG111">
         <v>1.634960889816284</v>
       </c>
-      <c r="AH111" t="s">
-        <v>230</v>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C112">
         <v>688147</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E112">
         <v>-1.39</v>
@@ -10336,7 +12316,7 @@
         <v>25401.19</v>
       </c>
       <c r="J112" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10377,8 +12357,23 @@
       <c r="W112">
         <v>-0.34</v>
       </c>
+      <c r="X112">
+        <v>1.71</v>
+      </c>
+      <c r="Y112">
+        <v>38.09</v>
+      </c>
+      <c r="Z112">
+        <v>1.65</v>
+      </c>
       <c r="AC112" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
       </c>
       <c r="AF112">
         <v>0</v>
@@ -10386,22 +12381,25 @@
       <c r="AG112">
         <v>0.4306108057498932</v>
       </c>
-      <c r="AH112" t="s">
-        <v>230</v>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>688167</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E113">
         <v>5.56</v>
@@ -10419,7 +12417,7 @@
         <v>78465.96000000001</v>
       </c>
       <c r="J113" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K113">
         <v>10</v>
@@ -10460,8 +12458,23 @@
       <c r="W113">
         <v>0.87</v>
       </c>
+      <c r="X113">
+        <v>3.56</v>
+      </c>
+      <c r="Y113">
+        <v>133</v>
+      </c>
+      <c r="Z113">
+        <v>9.960000000000001</v>
+      </c>
       <c r="AC113" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>1</v>
       </c>
       <c r="AF113">
         <v>0</v>
@@ -10469,22 +12482,25 @@
       <c r="AG113">
         <v>0.2600649893283844</v>
       </c>
-      <c r="AH113" t="s">
-        <v>230</v>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C114">
         <v>688189</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E114">
         <v>4.7</v>
@@ -10502,7 +12518,7 @@
         <v>63770.53</v>
       </c>
       <c r="J114" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -10543,8 +12559,23 @@
       <c r="W114">
         <v>0.26</v>
       </c>
+      <c r="X114">
+        <v>-6.39</v>
+      </c>
+      <c r="Y114">
+        <v>16.08</v>
+      </c>
+      <c r="Z114">
+        <v>-5.08</v>
+      </c>
       <c r="AC114" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
       </c>
       <c r="AF114">
         <v>0</v>
@@ -10552,22 +12583,25 @@
       <c r="AG114">
         <v>5.704236507415771</v>
       </c>
-      <c r="AH114" t="s">
-        <v>230</v>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C115">
         <v>688195</v>
       </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115">
         <v>6.99</v>
@@ -10585,7 +12619,7 @@
         <v>148573.59</v>
       </c>
       <c r="J115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K115">
         <v>2</v>
@@ -10626,8 +12660,23 @@
       <c r="W115">
         <v>-1.47</v>
       </c>
+      <c r="X115">
+        <v>0.1</v>
+      </c>
+      <c r="Y115">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="Z115">
+        <v>-0.9</v>
+      </c>
       <c r="AC115" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
       </c>
       <c r="AF115">
         <v>1</v>
@@ -10635,22 +12684,25 @@
       <c r="AG115">
         <v>7.846928119659424</v>
       </c>
-      <c r="AH115" t="s">
-        <v>230</v>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C116">
         <v>688199</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E116">
         <v>-2</v>
@@ -10668,7 +12720,7 @@
         <v>26585.48</v>
       </c>
       <c r="J116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K116">
         <v>5</v>
@@ -10709,8 +12761,23 @@
       <c r="W116">
         <v>-0.21</v>
       </c>
+      <c r="X116">
+        <v>1.48</v>
+      </c>
+      <c r="Y116">
+        <v>29.69</v>
+      </c>
+      <c r="Z116">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="AC116" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
       </c>
       <c r="AF116">
         <v>0</v>
@@ -10718,22 +12785,25 @@
       <c r="AG116">
         <v>1.094299674034119</v>
       </c>
-      <c r="AH116" t="s">
-        <v>230</v>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C117">
         <v>688202</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E117">
         <v>2.97</v>
@@ -10751,7 +12821,7 @@
         <v>45480.07</v>
       </c>
       <c r="J117" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K117">
         <v>5</v>
@@ -10792,8 +12862,23 @@
       <c r="W117">
         <v>0.23</v>
       </c>
+      <c r="X117">
+        <v>-3.35</v>
+      </c>
+      <c r="Y117">
+        <v>64</v>
+      </c>
+      <c r="Z117">
+        <v>-6.81</v>
+      </c>
       <c r="AC117" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -10801,22 +12886,25 @@
       <c r="AG117">
         <v>9.035175323486328</v>
       </c>
-      <c r="AH117" t="s">
-        <v>230</v>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C118">
         <v>688270</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E118">
         <v>3.5</v>
@@ -10834,7 +12922,7 @@
         <v>90883.28999999999</v>
       </c>
       <c r="J118" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K118">
         <v>5</v>
@@ -10875,8 +12963,23 @@
       <c r="W118">
         <v>-0.03</v>
       </c>
+      <c r="X118">
+        <v>-3.39</v>
+      </c>
+      <c r="Y118">
+        <v>74</v>
+      </c>
+      <c r="Z118">
+        <v>2.98</v>
+      </c>
       <c r="AC118" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -10884,22 +12987,25 @@
       <c r="AG118">
         <v>2.028767824172974</v>
       </c>
-      <c r="AH118" t="s">
-        <v>230</v>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C119">
         <v>688313</v>
       </c>
       <c r="D119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119">
         <v>1.87</v>
@@ -10917,7 +13023,7 @@
         <v>202395.11</v>
       </c>
       <c r="J119" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K119">
         <v>6</v>
@@ -10958,8 +13064,23 @@
       <c r="W119">
         <v>-0.32</v>
       </c>
+      <c r="X119">
+        <v>-2.36</v>
+      </c>
+      <c r="Y119">
+        <v>63.02</v>
+      </c>
+      <c r="Z119">
+        <v>-5.25</v>
+      </c>
       <c r="AC119" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -10967,22 +13088,25 @@
       <c r="AG119">
         <v>2.762830972671509</v>
       </c>
-      <c r="AH119" t="s">
-        <v>230</v>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C120">
         <v>688379</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E120">
         <v>-1.08</v>
@@ -11000,7 +13124,7 @@
         <v>36636.69</v>
       </c>
       <c r="J120" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K120">
         <v>8</v>
@@ -11041,8 +13165,23 @@
       <c r="W120">
         <v>-0.21</v>
       </c>
+      <c r="X120">
+        <v>0.17</v>
+      </c>
+      <c r="Y120">
+        <v>68.47</v>
+      </c>
+      <c r="Z120">
+        <v>2.73</v>
+      </c>
       <c r="AC120" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -11050,22 +13189,25 @@
       <c r="AG120">
         <v>4.337295532226562</v>
       </c>
-      <c r="AH120" t="s">
-        <v>230</v>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34">
+    <row r="121" spans="1:35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C121">
         <v>688401</v>
       </c>
       <c r="D121" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E121">
         <v>-2.77</v>
@@ -11083,7 +13225,7 @@
         <v>17421.42</v>
       </c>
       <c r="J121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K121">
         <v>3</v>
@@ -11124,8 +13266,23 @@
       <c r="W121">
         <v>-0.11</v>
       </c>
+      <c r="X121">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Y121">
+        <v>44.9</v>
+      </c>
+      <c r="Z121">
+        <v>1.58</v>
+      </c>
       <c r="AC121" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
       </c>
       <c r="AF121">
         <v>0</v>
@@ -11133,22 +13290,25 @@
       <c r="AG121">
         <v>3.706636190414429</v>
       </c>
-      <c r="AH121" t="s">
-        <v>230</v>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34">
+    <row r="122" spans="1:35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122">
         <v>688448</v>
       </c>
       <c r="D122" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E122">
         <v>0.35</v>
@@ -11166,7 +13326,7 @@
         <v>32517.55</v>
       </c>
       <c r="J122" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K122">
         <v>5</v>
@@ -11207,8 +13367,23 @@
       <c r="W122">
         <v>-0.24</v>
       </c>
+      <c r="X122">
+        <v>-5.57</v>
+      </c>
+      <c r="Y122">
+        <v>64.95999999999999</v>
+      </c>
+      <c r="Z122">
+        <v>-0.4</v>
+      </c>
       <c r="AC122" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
       </c>
       <c r="AF122">
         <v>0</v>
@@ -11216,22 +13391,25 @@
       <c r="AG122">
         <v>7.665761947631836</v>
       </c>
-      <c r="AH122" t="s">
-        <v>230</v>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:34">
+    <row r="123" spans="1:35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C123">
         <v>688499</v>
       </c>
       <c r="D123" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E123">
         <v>2.36</v>
@@ -11249,7 +13427,7 @@
         <v>42695.3</v>
       </c>
       <c r="J123" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K123">
         <v>46</v>
@@ -11290,8 +13468,23 @@
       <c r="W123">
         <v>0.05</v>
       </c>
+      <c r="X123">
+        <v>7.34</v>
+      </c>
+      <c r="Y123">
+        <v>67</v>
+      </c>
+      <c r="Z123">
+        <v>4.98</v>
+      </c>
       <c r="AC123" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
       </c>
       <c r="AF123">
         <v>0</v>
@@ -11299,22 +13492,25 @@
       <c r="AG123">
         <v>2.297842264175415</v>
       </c>
-      <c r="AH123" t="s">
-        <v>230</v>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:34">
+    <row r="124" spans="1:35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C124">
         <v>688502</v>
       </c>
       <c r="D124" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E124">
         <v>1.53</v>
@@ -11332,7 +13528,7 @@
         <v>36947.67</v>
       </c>
       <c r="J124" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K124">
         <v>17</v>
@@ -11373,8 +13569,23 @@
       <c r="W124">
         <v>0.04</v>
       </c>
+      <c r="X124">
+        <v>9.66</v>
+      </c>
+      <c r="Y124">
+        <v>433.33</v>
+      </c>
+      <c r="Z124">
+        <v>10.74</v>
+      </c>
       <c r="AC124" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>1</v>
       </c>
       <c r="AF124">
         <v>0</v>
@@ -11382,22 +13593,25 @@
       <c r="AG124">
         <v>1.893413305282593</v>
       </c>
-      <c r="AH124" t="s">
-        <v>230</v>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:34">
+    <row r="125" spans="1:35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125">
         <v>688507</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E125">
         <v>5.4</v>
@@ -11415,7 +13629,7 @@
         <v>47893.18</v>
       </c>
       <c r="J125" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K125">
         <v>10</v>
@@ -11456,8 +13670,23 @@
       <c r="W125">
         <v>0.13</v>
       </c>
+      <c r="X125">
+        <v>-2.58</v>
+      </c>
+      <c r="Y125">
+        <v>105.8</v>
+      </c>
+      <c r="Z125">
+        <v>-3.84</v>
+      </c>
       <c r="AC125" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>0</v>
       </c>
       <c r="AF125">
         <v>0</v>
@@ -11465,22 +13694,25 @@
       <c r="AG125">
         <v>4.599077224731445</v>
       </c>
-      <c r="AH125" t="s">
-        <v>230</v>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34">
+    <row r="126" spans="1:35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126">
         <v>688556</v>
       </c>
       <c r="D126" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E126">
         <v>3.79</v>
@@ -11498,7 +13730,7 @@
         <v>40866.52</v>
       </c>
       <c r="J126" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K126">
         <v>17</v>
@@ -11539,8 +13771,23 @@
       <c r="W126">
         <v>0.4</v>
       </c>
+      <c r="X126">
+        <v>-1.53</v>
+      </c>
+      <c r="Y126">
+        <v>13.02</v>
+      </c>
+      <c r="Z126">
+        <v>5.6</v>
+      </c>
       <c r="AC126" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
       </c>
       <c r="AF126">
         <v>0</v>
@@ -11548,22 +13795,25 @@
       <c r="AG126">
         <v>0.1112364158034325</v>
       </c>
-      <c r="AH126" t="s">
-        <v>230</v>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34">
+    <row r="127" spans="1:35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127">
         <v>688584</v>
       </c>
       <c r="D127" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E127">
         <v>-6.08</v>
@@ -11581,7 +13831,7 @@
         <v>40103.8</v>
       </c>
       <c r="J127" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K127">
         <v>5</v>
@@ -11622,8 +13872,23 @@
       <c r="W127">
         <v>-0.37</v>
       </c>
+      <c r="X127">
+        <v>12.46</v>
+      </c>
+      <c r="Y127">
+        <v>28.97</v>
+      </c>
+      <c r="Z127">
+        <v>12.9</v>
+      </c>
       <c r="AC127" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>1</v>
       </c>
       <c r="AF127">
         <v>0</v>
@@ -11631,22 +13896,25 @@
       <c r="AG127">
         <v>7.870757102966309</v>
       </c>
-      <c r="AH127" t="s">
-        <v>230</v>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34">
+    <row r="128" spans="1:35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128">
         <v>688603</v>
       </c>
       <c r="D128" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E128">
         <v>1.36</v>
@@ -11664,7 +13932,7 @@
         <v>63206.81</v>
       </c>
       <c r="J128" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K128">
         <v>5</v>
@@ -11705,8 +13973,23 @@
       <c r="W128">
         <v>-0.14</v>
       </c>
+      <c r="X128">
+        <v>-1.31</v>
+      </c>
+      <c r="Y128">
+        <v>93.3</v>
+      </c>
+      <c r="Z128">
+        <v>-4.88</v>
+      </c>
       <c r="AC128" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>0</v>
       </c>
       <c r="AF128">
         <v>0</v>
@@ -11714,22 +13997,25 @@
       <c r="AG128">
         <v>1.042079091072083</v>
       </c>
-      <c r="AH128" t="s">
-        <v>230</v>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:34">
+    <row r="129" spans="1:35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129">
         <v>688711</v>
       </c>
       <c r="D129" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E129">
         <v>1.66</v>
@@ -11747,7 +14033,7 @@
         <v>33882.2</v>
       </c>
       <c r="J129" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K129">
         <v>10</v>
@@ -11788,8 +14074,23 @@
       <c r="W129">
         <v>0.12</v>
       </c>
+      <c r="X129">
+        <v>1.06</v>
+      </c>
+      <c r="Y129">
+        <v>29</v>
+      </c>
+      <c r="Z129">
+        <v>-3.43</v>
+      </c>
       <c r="AC129" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD129">
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
       </c>
       <c r="AF129">
         <v>0</v>
@@ -11797,22 +14098,25 @@
       <c r="AG129">
         <v>1.33942711353302</v>
       </c>
-      <c r="AH129" t="s">
-        <v>230</v>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:34">
+    <row r="130" spans="1:35">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130">
         <v>688716</v>
       </c>
       <c r="D130" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E130">
         <v>-1.37</v>
@@ -11830,7 +14134,7 @@
         <v>53854.75</v>
       </c>
       <c r="J130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K130">
         <v>4</v>
@@ -11871,8 +14175,23 @@
       <c r="W130">
         <v>-1.55</v>
       </c>
+      <c r="X130">
+        <v>4.59</v>
+      </c>
+      <c r="Y130">
+        <v>57.59</v>
+      </c>
+      <c r="Z130">
+        <v>2.8</v>
+      </c>
       <c r="AC130" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD130">
+        <v>0</v>
+      </c>
+      <c r="AE130">
+        <v>0</v>
       </c>
       <c r="AF130">
         <v>0</v>
@@ -11880,22 +14199,25 @@
       <c r="AG130">
         <v>0.03470355272293091</v>
       </c>
-      <c r="AH130" t="s">
-        <v>230</v>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:34">
+    <row r="131" spans="1:35">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C131">
         <v>688733</v>
       </c>
       <c r="D131" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E131">
         <v>-5.28</v>
@@ -11913,7 +14235,7 @@
         <v>50431.96</v>
       </c>
       <c r="J131" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -11954,8 +14276,23 @@
       <c r="W131">
         <v>-0.83</v>
       </c>
+      <c r="X131">
+        <v>-6.57</v>
+      </c>
+      <c r="Y131">
+        <v>28.68</v>
+      </c>
+      <c r="Z131">
+        <v>-3.69</v>
+      </c>
       <c r="AC131" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
       </c>
       <c r="AF131">
         <v>0</v>
@@ -11963,22 +14300,25 @@
       <c r="AG131">
         <v>3.14844012260437</v>
       </c>
-      <c r="AH131" t="s">
-        <v>230</v>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:34">
+    <row r="132" spans="1:35">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132">
         <v>688767</v>
       </c>
       <c r="D132" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E132">
         <v>1.21</v>
@@ -11996,7 +14336,7 @@
         <v>29494.79</v>
       </c>
       <c r="J132" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K132">
         <v>3</v>
@@ -12037,8 +14377,23 @@
       <c r="W132">
         <v>-0.06</v>
       </c>
+      <c r="X132">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y132">
+        <v>45.99</v>
+      </c>
+      <c r="Z132">
+        <v>-1.71</v>
+      </c>
       <c r="AC132" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
       </c>
       <c r="AF132">
         <v>0</v>
@@ -12046,22 +14401,25 @@
       <c r="AG132">
         <v>2.704036951065063</v>
       </c>
-      <c r="AH132" t="s">
-        <v>230</v>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:34">
+    <row r="133" spans="1:35">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C133">
         <v>688800</v>
       </c>
       <c r="D133" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E133">
         <v>8.199999999999999</v>
@@ -12079,7 +14437,7 @@
         <v>158776.84</v>
       </c>
       <c r="J133" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K133">
         <v>11</v>
@@ -12120,8 +14478,23 @@
       <c r="W133">
         <v>0.04</v>
       </c>
+      <c r="X133">
+        <v>-7.82</v>
+      </c>
+      <c r="Y133">
+        <v>76</v>
+      </c>
+      <c r="Z133">
+        <v>-9.75</v>
+      </c>
       <c r="AC133" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="AD133">
+        <v>0</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
       </c>
       <c r="AF133">
         <v>0</v>
@@ -12129,8 +14502,11 @@
       <c r="AG133">
         <v>0.6011349558830261</v>
       </c>
-      <c r="AH133" t="s">
-        <v>230</v>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
